--- a/physical_model.xlsx
+++ b/physical_model.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
   <si>
     <t>Название</t>
   </si>
@@ -146,6 +146,411 @@
     <t>VARCHAR(13)</t>
   </si>
   <si>
+    <t>Идентификатор рейса</t>
+  </si>
+  <si>
+    <t>Место в самолёте</t>
+  </si>
+  <si>
+    <t>VARCHAR(7)</t>
+  </si>
+  <si>
+    <t>Наличие багажа</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Статус билета</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>plane_model</t>
+  </si>
+  <si>
+    <t>arrival_time</t>
+  </si>
+  <si>
+    <t>baggage_pick_time</t>
+  </si>
+  <si>
+    <t>terminal</t>
+  </si>
+  <si>
+    <t>entrance_num</t>
+  </si>
+  <si>
+    <t>Модель самолета</t>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+  </si>
+  <si>
+    <t>Бортовой номер самолета</t>
+  </si>
+  <si>
+    <t>Краткое название аэропорта отправления</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
+    <t>Время прибытия</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Номер терминала</t>
+  </si>
+  <si>
+    <t>NOT NULL, BETWEEN(1, 4)</t>
+  </si>
+  <si>
+    <t>Номер выхода</t>
+  </si>
+  <si>
+    <t>NOT NULL, BETWEEN(1, 80)</t>
+  </si>
+  <si>
+    <t>Статус рейса</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOT NULL, допустимые значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>planning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suspended</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>canceled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completed</t>
+    </r>
+  </si>
+  <si>
+    <t>Краткое название аэропорта прибытия</t>
+  </si>
+  <si>
+    <t>Время выдачи багажа</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOT NULL, допустимые значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>planning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suspended</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>canceled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, baggage </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>picking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completed</t>
+    </r>
+  </si>
+  <si>
+    <t>airport_destination</t>
+  </si>
+  <si>
+    <t>end_of_lending_time</t>
+  </si>
+  <si>
+    <t>Время окончания посадки</t>
+  </si>
+  <si>
+    <t>Номер входа</t>
+  </si>
+  <si>
+    <t>NOT NULL, BETWEEN(1, 50)</t>
+  </si>
+  <si>
+    <t>gate_num</t>
+  </si>
+  <si>
+    <t>Airline</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>founded_year</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>main_hub</t>
+  </si>
+  <si>
+    <t>Название авиакомпании</t>
+  </si>
+  <si>
+    <t>Страна регистрации</t>
+  </si>
+  <si>
+    <t>Год основания</t>
+  </si>
+  <si>
+    <t>Сайт авиакомпании</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>Главный узловой аэропорт (краткое название)</t>
+  </si>
+  <si>
+    <t>Plane</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>issue_year</t>
+  </si>
+  <si>
+    <t>first_flight_date</t>
+  </si>
+  <si>
+    <t>last_technical_change_date</t>
+  </si>
+  <si>
+    <t>valid_from_dttm</t>
+  </si>
+  <si>
+    <t>valid_to_dttm</t>
+  </si>
+  <si>
+    <t>Бортовой номер</t>
+  </si>
+  <si>
+    <t>Год выпуска</t>
+  </si>
+  <si>
+    <t>Дата первого полёта</t>
+  </si>
+  <si>
+    <t>Дата последней технической проверки</t>
+  </si>
+  <si>
+    <t>Статус самолета</t>
+  </si>
+  <si>
+    <t>Время начала актуальности данных</t>
+  </si>
+  <si>
+    <t>Время окончания актуальности данных</t>
+  </si>
+  <si>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>airline</t>
+  </si>
+  <si>
+    <t>airline_role</t>
+  </si>
+  <si>
+    <t>Тикер авиакомпании</t>
+  </si>
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>Тикер (краткое название) авиакомпании</t>
+  </si>
+  <si>
+    <t>Роль авиакомпании в рейсе</t>
+  </si>
+  <si>
+    <t>plane_tail_num</t>
+  </si>
+  <si>
+    <t>tail_num</t>
+  </si>
+  <si>
+    <t>NOT NULL,  &gt;=1900</t>
+  </si>
+  <si>
+    <t>&gt;=01.01.1900</t>
+  </si>
+  <si>
+    <t>&gt;= 1800</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">NOT NULL, значения </t>
     </r>
@@ -182,29 +587,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Depature</t>
-    </r>
-  </si>
-  <si>
-    <t>Идентификатор рейса</t>
-  </si>
-  <si>
-    <t>Место в самолёте</t>
-  </si>
-  <si>
-    <t>VARCHAR(7)</t>
-  </si>
-  <si>
-    <t>Наличие багажа</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>Статус билета</t>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
+      <t>Departure</t>
+    </r>
   </si>
   <si>
     <r>
@@ -243,7 +627,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>check in completed</t>
+      <t>check-in completed</t>
     </r>
     <r>
       <rPr>
@@ -293,403 +677,25 @@
     </r>
   </si>
   <si>
-    <t>Arrival flight</t>
-  </si>
-  <si>
-    <t>plane_model</t>
-  </si>
-  <si>
-    <t>airport_depature</t>
-  </si>
-  <si>
-    <t>arrival_time</t>
-  </si>
-  <si>
-    <t>baggage_pick_time</t>
-  </si>
-  <si>
-    <t>terminal</t>
-  </si>
-  <si>
-    <t>entrance_num</t>
-  </si>
-  <si>
-    <t>Модель самолета</t>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-  </si>
-  <si>
-    <t>Бортовой номер самолета</t>
-  </si>
-  <si>
-    <t>Краткое название аэропорта отправления</t>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-  </si>
-  <si>
-    <t>Время прибытия</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>Номер терминала</t>
-  </si>
-  <si>
-    <t>NOT NULL, BETWEEN(1, 4)</t>
-  </si>
-  <si>
-    <t>Номер выхода</t>
-  </si>
-  <si>
-    <t>NOT NULL, BETWEEN(1, 80)</t>
-  </si>
-  <si>
-    <t>Статус рейса</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NOT NULL, допустимые значения: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>planning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>suspended</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>canceled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>completed</t>
-    </r>
-  </si>
-  <si>
-    <t>Depature flight</t>
-  </si>
-  <si>
-    <t>Краткое название аэропорта прибытия</t>
-  </si>
-  <si>
-    <t>Время выдачи багажа</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NOT NULL, допустимые значения: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>planning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>suspended</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>canceled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, baggage </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>picking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>completed</t>
-    </r>
-  </si>
-  <si>
-    <t>airport_destination</t>
-  </si>
-  <si>
-    <t>end_of_lending_time</t>
-  </si>
-  <si>
-    <t>Время окончания посадки</t>
-  </si>
-  <si>
-    <t>Номер входа</t>
-  </si>
-  <si>
-    <t>NOT NULL, BETWEEN(1, 50)</t>
-  </si>
-  <si>
-    <t>gate_num</t>
-  </si>
-  <si>
-    <t>Airline</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>founded_year</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>main_hub</t>
-  </si>
-  <si>
-    <t>Название авиакомпании</t>
-  </si>
-  <si>
-    <t>Страна регистрации</t>
-  </si>
-  <si>
-    <t>Год основания</t>
-  </si>
-  <si>
-    <t>Сайт авиакомпании</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>Главный узловой аэропорт (краткое название)</t>
-  </si>
-  <si>
-    <t>Plane</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>issue_year</t>
-  </si>
-  <si>
-    <t>first_flight_date</t>
-  </si>
-  <si>
-    <t>last_technical_change_date</t>
-  </si>
-  <si>
-    <t>valid_from_dttm</t>
-  </si>
-  <si>
-    <t>valid_to_dttm</t>
-  </si>
-  <si>
-    <t>Бортовой номер</t>
-  </si>
-  <si>
-    <t>Год выпуска</t>
-  </si>
-  <si>
-    <t>Дата первого полёта</t>
-  </si>
-  <si>
-    <t>Дата последней технической проверки</t>
-  </si>
-  <si>
-    <t>Статус самолета</t>
-  </si>
-  <si>
-    <t>Время начала актуальности данных</t>
-  </si>
-  <si>
-    <t>Время окончания актуальности данных</t>
-  </si>
-  <si>
-    <t>Airline_and_arrival</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>airline</t>
-  </si>
-  <si>
-    <t>airline_role</t>
-  </si>
-  <si>
-    <t>Тикер авиакомпании</t>
-  </si>
-  <si>
-    <t>ticker</t>
-  </si>
-  <si>
-    <t>Тикер (краткое название) авиакомпании</t>
-  </si>
-  <si>
-    <t>Роль авиакомпании в рейсе</t>
-  </si>
-  <si>
-    <t>Airline_and_depature</t>
-  </si>
-  <si>
-    <t>plane_tail_num</t>
-  </si>
-  <si>
-    <t>tail_num</t>
-  </si>
-  <si>
-    <t>NOT NULL,  &gt;=1900</t>
-  </si>
-  <si>
-    <t>&gt;=01.01.1900</t>
-  </si>
-  <si>
-    <t>&gt;= 1800</t>
+    <t>airport_departure</t>
+  </si>
+  <si>
+    <t>NOT NULL, допустимые значения "decommissioned", "at work"</t>
+  </si>
+  <si>
+    <t>AirlineAndArrival</t>
+  </si>
+  <si>
+    <t>AirlineAndDepature</t>
+  </si>
+  <si>
+    <t>ArrivalFlight</t>
+  </si>
+  <si>
+    <t>DepartureFlight</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
   </si>
 </sst>
 </file>
@@ -1279,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -1458,7 +1464,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>7</v>
@@ -1475,7 +1481,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1483,7 +1489,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>5</v>
@@ -1511,10 +1517,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>15</v>
@@ -1525,10 +1531,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>15</v>
@@ -1539,13 +1545,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" s="23" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,7 +1565,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -1584,10 +1590,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>7</v>
@@ -1595,13 +1601,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>15</v>
@@ -1609,10 +1615,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>5</v>
@@ -1623,13 +1629,13 @@
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>15</v>
@@ -1637,13 +1643,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>15</v>
@@ -1651,42 +1657,42 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1694,13 +1700,13 @@
         <v>37</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1717,7 +1723,7 @@
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -1742,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>7</v>
@@ -1753,13 +1759,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>15</v>
@@ -1767,10 +1773,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>5</v>
@@ -1781,13 +1787,13 @@
     </row>
     <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>15</v>
@@ -1795,13 +1801,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>15</v>
@@ -1809,30 +1815,30 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1840,19 +1846,19 @@
         <v>37</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -1874,13 +1880,13 @@
     </row>
     <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>7</v>
@@ -1888,10 +1894,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>14</v>
@@ -1902,10 +1908,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>14</v>
@@ -1914,46 +1920,46 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="C55" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D56" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -1975,13 +1981,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>15</v>
@@ -1989,13 +1995,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>7</v>
@@ -2003,69 +2009,69 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>15</v>
+      <c r="D66" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>15</v>
@@ -2073,13 +2079,13 @@
     </row>
     <row r="68" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>15</v>
@@ -2088,7 +2094,7 @@
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -2110,10 +2116,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>5</v>
@@ -2124,13 +2130,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D74" s="22" t="s">
         <v>15</v>
@@ -2138,10 +2144,10 @@
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>27</v>
@@ -2151,7 +2157,7 @@
     <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -2173,10 +2179,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>5</v>
@@ -2187,13 +2193,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>15</v>
@@ -2201,10 +2207,10 @@
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>27</v>

--- a/physical_model.xlsx
+++ b/physical_model.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
   <si>
     <t>Название</t>
   </si>
@@ -167,9 +167,6 @@
     <t>VARCHAR(10)</t>
   </si>
   <si>
-    <t>plane_model</t>
-  </si>
-  <si>
     <t>arrival_time</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t>airport_destination</t>
   </si>
   <si>
-    <t>end_of_lending_time</t>
-  </si>
-  <si>
     <t>Время окончания посадки</t>
   </si>
   <si>
@@ -696,6 +690,9 @@
   </si>
   <si>
     <t>SERIAL</t>
+  </si>
+  <si>
+    <t>boarding_end_time</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1327,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -1464,7 +1461,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>7</v>
@@ -1481,7 +1478,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,7 +1548,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,7 +1562,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -1593,7 +1590,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>7</v>
@@ -1601,41 +1598,41 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="6" t="s">
         <v>56</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>15</v>
@@ -1646,251 +1643,249 @@
         <v>48</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="17"/>
+        <v>5</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="B33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="B51" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
@@ -1900,10 +1895,10 @@
         <v>80</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1914,100 +1909,102 @@
         <v>81</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="D59" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>15</v>
+      <c r="D61" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>88</v>
       </c>
@@ -2015,218 +2012,190 @@
         <v>94</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>110</v>
+        <v>27</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D73" s="21"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="8" t="s">
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="26"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="17" t="s">
+      <c r="B78" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="19" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="21" t="s">
+      <c r="B79" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="20" t="s">
+      <c r="B80" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="21"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="26"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="21"/>
+      <c r="D80" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A76:D76"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/physical_model.xlsx
+++ b/physical_model.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="118">
   <si>
     <t>Название</t>
   </si>
@@ -98,9 +98,6 @@
     <t>passport_num</t>
   </si>
   <si>
-    <t>CHAR(10)</t>
-  </si>
-  <si>
     <t>citizenship</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Ticket</t>
   </si>
   <si>
-    <t>ticket_num</t>
-  </si>
-  <si>
     <t>Идентификатор билета</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>Статус билета</t>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
     <t>arrival_time</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>Время прибытия</t>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
     <t>Номер терминала</t>
   </si>
   <si>
@@ -693,6 +681,12 @@
   </si>
   <si>
     <t>boarding_end_time</t>
+  </si>
+  <si>
+    <t>ticket_id</t>
+  </si>
+  <si>
+    <t>TIMESTAMP(0)</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1290,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1324,11 +1318,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1404,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -1412,13 +1404,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
@@ -1433,7 +1425,7 @@
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1455,38 +1447,36 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>7</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>5</v>
@@ -1497,7 +1487,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>6</v>
@@ -1511,13 +1501,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>15</v>
@@ -1525,13 +1515,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>15</v>
@@ -1539,16 +1529,16 @@
     </row>
     <row r="21" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1562,7 +1552,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -1587,24 +1577,22 @@
         <v>4</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>7</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>15</v>
@@ -1612,13 +1600,13 @@
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>15</v>
@@ -1626,13 +1614,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>15</v>
@@ -1640,56 +1628,56 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1706,7 +1694,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -1731,10 +1719,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>7</v>
@@ -1742,13 +1730,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>15</v>
@@ -1756,13 +1744,13 @@
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>15</v>
@@ -1770,13 +1758,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>15</v>
@@ -1784,50 +1772,50 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -1849,13 +1837,13 @@
     </row>
     <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>7</v>
@@ -1863,10 +1851,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>14</v>
@@ -1877,10 +1865,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>14</v>
@@ -1889,46 +1877,46 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D54" s="21"/>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -1950,10 +1938,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>14</v>
@@ -1964,13 +1952,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>7</v>
@@ -1978,69 +1966,69 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>15</v>
@@ -2048,13 +2036,13 @@
     </row>
     <row r="66" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>15</v>
@@ -2063,7 +2051,7 @@
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -2085,10 +2073,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>5</v>
@@ -2099,13 +2087,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>15</v>
@@ -2113,20 +2101,20 @@
     </row>
     <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="C73" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="21"/>
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -2148,10 +2136,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>5</v>
@@ -2162,13 +2150,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>15</v>
@@ -2176,13 +2164,13 @@
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="C80" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" s="21"/>
     </row>
